--- a/va_facility_data_2025-02-20/Thomas E. Creek Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Thomas%20E.%20Creek%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Thomas E. Creek Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Thomas%20E.%20Creek%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R448d8b1f0fb64c64bb39848509b8dbb3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R4a33c8454f084e16921ce3a776c3bbd6"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb719fcf52a6249aea75c21998329f830"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R33ada1a14f224093909c83702cdbcec6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5c831f2ed0414aa7939e6b01fe2adf81"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdaad8645026443039d8e7e4c07d8e228"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R93068464ca1b46bba65fcee5a78f07f7"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2b04ebf750f44988a8133bb49c93bb32"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8c9aa71de940424e8e2f1deb8b3895c4"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R90272a28839342e8ba026f03eacf182d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4e2c50dc850a477fa5749f7dcbe9465c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4c8549011b42456ab28b79e54242e5e8"/>
   </x:sheets>
 </x:workbook>
 </file>
